--- a/BTAA Positions.xlsx
+++ b/BTAA Positions.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rutgersconnect-my.sharepoint.com/personal/rwomack_libraries_rutgers_edu/Documents/NBL/Exploratory/BTAAreview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwomack\OneDrive - Rutgers University\NBL\Exploratory\BTAAreview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{C87AF90F-0EE2-9445-B8C6-BAB4978686AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BBC30D4-CF7A-9940-8F34-3CB335C6474E}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="2000" windowWidth="26960" windowHeight="14980" xr2:uid="{7F046053-F712-A14F-8C7D-55A948D74D5E}"/>
+    <workbookView xWindow="1515" yWindow="1995" windowWidth="26955" windowHeight="14985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="156">
   <si>
     <t>Social Sciences</t>
   </si>
@@ -259,12 +258,255 @@
   </si>
   <si>
     <t>Head of Information Studies</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Latin American &amp; Caribbean</t>
+  </si>
+  <si>
+    <t>Chicanx &amp; Latinx (Boricua, Hispanic)</t>
+  </si>
+  <si>
+    <t>Middle Eastern &amp; Jewish</t>
+  </si>
+  <si>
+    <t>Asian Studies &amp; International Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European </t>
+  </si>
+  <si>
+    <t>Russian &amp; East European &amp; Central Asian</t>
+  </si>
+  <si>
+    <t>South &amp; Southeast Asian</t>
+  </si>
+  <si>
+    <t>Germanic</t>
+  </si>
+  <si>
+    <t>African-American, Arab, Asian American &amp; Pacific Islander, Euro-American, Native American, and African</t>
+  </si>
+  <si>
+    <t>Italian &amp; Modern Greek, Iberian</t>
+  </si>
+  <si>
+    <t>Business &amp; Economics &amp; Data</t>
+  </si>
+  <si>
+    <t>Anthropology, Econ, Classics, GIS, Geography, and Maps</t>
+  </si>
+  <si>
+    <t>see GIS Maps role above</t>
+  </si>
+  <si>
+    <t>Social Work, Sociology, Human Development &amp; Family Studies</t>
+  </si>
+  <si>
+    <t>Public Policy &amp; Public Administration &amp; Political Science</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Ag Econ (with Ag)</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>GIS, Geography, Maps (2nd position)</t>
+  </si>
+  <si>
+    <t>Digital Projects Librarian</t>
+  </si>
+  <si>
+    <t>Head of Reference Services</t>
+  </si>
+  <si>
+    <t>Digital Scholarship Librarian</t>
+  </si>
+  <si>
+    <t>Librarian for Interdisciplinary Teaching and Learning Initiatives</t>
+  </si>
+  <si>
+    <t>Teaching &amp; Learning Librarian</t>
+  </si>
+  <si>
+    <t>Head, Teaching &amp; Learning</t>
+  </si>
+  <si>
+    <t>US, International and Canadian Government Information Librarian</t>
+  </si>
+  <si>
+    <t>Government Information, Law, and Politcal Science Librarian</t>
+  </si>
+  <si>
+    <t>Social Work Librarian</t>
+  </si>
+  <si>
+    <t>Psychology and Sociology</t>
+  </si>
+  <si>
+    <t>South Asian Studies &amp; Anthropology</t>
+  </si>
+  <si>
+    <t>South Asian Studies &amp; Anthropology (see above)</t>
+  </si>
+  <si>
+    <t>Linguistics and Economics</t>
+  </si>
+  <si>
+    <t>Director, Social Sciences and Clark Library</t>
+  </si>
+  <si>
+    <t>Education Librarian</t>
+  </si>
+  <si>
+    <t>International Government Information and Public Policy</t>
+  </si>
+  <si>
+    <t>Student Success</t>
+  </si>
+  <si>
+    <t>Student Success &amp; Community Engagement</t>
+  </si>
+  <si>
+    <t>Student Engagement</t>
+  </si>
+  <si>
+    <t>Undergraduate Collections</t>
+  </si>
+  <si>
+    <t>Map &amp; Geospatial Data</t>
+  </si>
+  <si>
+    <t>Connected Scholarship</t>
+  </si>
+  <si>
+    <t>Space Design &amp; Assessment</t>
+  </si>
+  <si>
+    <t>Learning Librarian</t>
+  </si>
+  <si>
+    <t>User Services Librarian</t>
+  </si>
+  <si>
+    <t>Digital Learning Librarian</t>
+  </si>
+  <si>
+    <t>Learning Librarian/Children's Literature Librarian</t>
+  </si>
+  <si>
+    <t>Librarian (Deep Blue)</t>
+  </si>
+  <si>
+    <t>Library Research/Copyright</t>
+  </si>
+  <si>
+    <t>Publishing Services</t>
+  </si>
+  <si>
+    <t>Outreach &amp; Engagement</t>
+  </si>
+  <si>
+    <t>Research Impact &amp; Information Services</t>
+  </si>
+  <si>
+    <t>Data Curation</t>
+  </si>
+  <si>
+    <t>Librarian for Geospatial and Numeric Data</t>
+  </si>
+  <si>
+    <t>Digital Education</t>
+  </si>
+  <si>
+    <t>Digital Pedagogy</t>
+  </si>
+  <si>
+    <t>Map Librarian</t>
+  </si>
+  <si>
+    <t>Visualization Librarian</t>
+  </si>
+  <si>
+    <t>Project Librarian</t>
+  </si>
+  <si>
+    <t>Director (Deep Blue) and Research Data Services</t>
+  </si>
+  <si>
+    <t>Director, Shapiro Design Lab (Librarian?)</t>
+  </si>
+  <si>
+    <t>Director, International Studies</t>
+  </si>
+  <si>
+    <t>French, Italian, and Iberian</t>
+  </si>
+  <si>
+    <t>Slavic, East European, and Eurasian</t>
+  </si>
+  <si>
+    <t>Multicultural Studies</t>
+  </si>
+  <si>
+    <t>Director, Asia Library</t>
+  </si>
+  <si>
+    <t>Latin American and Caribbean</t>
+  </si>
+  <si>
+    <t>Middle Eastern and North African and Religious</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>Classical Studies &amp; Modern Greek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -282,12 +524,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -302,10 +562,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,41 +886,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A7E8C3-40B8-4048-9522-602B43EF87F0}">
-  <dimension ref="A1:O85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="24.375" customWidth="1"/>
-    <col min="15" max="15" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="37.54296875" customWidth="1"/>
+    <col min="7" max="7" width="46.26953125" customWidth="1"/>
+    <col min="14" max="14" width="24.36328125" customWidth="1"/>
+    <col min="15" max="15" width="35.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,305 +954,662 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M4" t="s">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N5" t="s">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N6" t="s">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M9" t="s">
+      <c r="F11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O10" t="s">
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O11" t="s">
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O12" t="s">
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="F15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="F16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="F17" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="F18" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M19" t="s">
+      <c r="F20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M20" t="s">
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="F21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M21" t="s">
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="F22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M22" t="s">
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="F23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O23" t="s">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="F24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O24" t="s">
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="F25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O25" t="s">
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="F26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O26" t="s">
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="F27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O27" t="s">
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="F28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O28" t="s">
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="F29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O29" t="s">
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="F30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="F31" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M31" t="s">
+      <c r="F32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O32" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N32" t="s">
+    <row r="33" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O33" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N33" t="s">
+    <row r="34" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="F34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O34" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N34" t="s">
+    <row r="35" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="F35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O35" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N35" t="s">
+    <row r="36" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="F36" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O36" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O36" t="s">
+    <row r="37" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="F37" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O37" t="s">
+    <row r="38" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="F38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O38" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="F39" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="F40" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="F41" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="F42" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="F43" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="F44" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="F45" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O41" t="s">
+      <c r="F46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O46" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N43" t="s">
+    <row r="47" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="G47" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="F48" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O48" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O44" t="s">
+    <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="F49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="O49" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O47" t="s">
+    <row r="50" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="F50" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="F51" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O52" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="O49" t="s">
+    <row r="53" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O54" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="O51" t="s">
+    <row r="55" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F56" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O56" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="O53" t="s">
+    <row r="57" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F58" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O58" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="O55" t="s">
+    <row r="59" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F60" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O60" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N57" t="s">
+    <row r="61" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N62" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="63" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F64" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F65" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F66" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BTAA Positions.xlsx
+++ b/BTAA Positions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwomack\OneDrive - Rutgers University\NBL\Exploratory\BTAAreview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rutgersconnect-my.sharepoint.com/personal/rwomack_libraries_rutgers_edu/Documents/NBL/Exploratory/BTAAreview/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -898,6 +898,7 @@
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="6" max="6" width="37.54296875" customWidth="1"/>
     <col min="7" max="7" width="46.26953125" customWidth="1"/>
+    <col min="13" max="13" width="21.1796875" customWidth="1"/>
     <col min="14" max="14" width="24.36328125" customWidth="1"/>
     <col min="15" max="15" width="35.90625" customWidth="1"/>
   </cols>

--- a/BTAA Positions.xlsx
+++ b/BTAA Positions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rutgersconnect-my.sharepoint.com/personal/rwomack_libraries_rutgers_edu/Documents/NBL/Exploratory/BTAAreview/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_9AE2215215EAAB2E32578452246B36726781E623" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C24A430B-740C-FA40-B8B2-929AB1136F8F}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1995" windowWidth="26955" windowHeight="14985"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="26960" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="348">
   <si>
     <t>Social Sciences</t>
   </si>
@@ -501,12 +493,588 @@
   </si>
   <si>
     <t>Classical Studies &amp; Modern Greek</t>
+  </si>
+  <si>
+    <t>Head, International &amp; Area Studies</t>
+  </si>
+  <si>
+    <t>South Asian</t>
+  </si>
+  <si>
+    <t>Manager, Slavic Reference Services &amp; Central Asian Studies</t>
+  </si>
+  <si>
+    <t>Central European</t>
+  </si>
+  <si>
+    <t>Latin American &amp; Caibbean</t>
+  </si>
+  <si>
+    <t>Gender and Multicultural</t>
+  </si>
+  <si>
+    <t>Middle East &amp; North African</t>
+  </si>
+  <si>
+    <t>Russian, East European, and Eurasian</t>
+  </si>
+  <si>
+    <t>European Union Studies</t>
+  </si>
+  <si>
+    <t>Behavioral Sciences Research and Data Services Librarian</t>
+  </si>
+  <si>
+    <t>Business Information Services (virtual)</t>
+  </si>
+  <si>
+    <t>Communications Librarian</t>
+  </si>
+  <si>
+    <t>Data Discovery and Business</t>
+  </si>
+  <si>
+    <t>Head, Social Sciences, Health, and Education Library</t>
+  </si>
+  <si>
+    <t>Social Sciences Research Librarian (Anthro, Geo, Soc)</t>
+  </si>
+  <si>
+    <t>Generalist librarian in International &amp; Area Studies Library</t>
+  </si>
+  <si>
+    <t>Director, Library Technology and Learning and Head, Undergraduate Library</t>
+  </si>
+  <si>
+    <t>Head, Scholarly Communication and Publishing</t>
+  </si>
+  <si>
+    <t>Head, Scholarly Commons</t>
+  </si>
+  <si>
+    <t>Reference Services &amp; Instruction Librarian and GA Supervisor</t>
+  </si>
+  <si>
+    <t>Repository Services Librarian</t>
+  </si>
+  <si>
+    <t>Director, Research Data Service (not a librarian)</t>
+  </si>
+  <si>
+    <t>Director, Reference &amp; Research Services</t>
+  </si>
+  <si>
+    <t>Reference Services &amp; Instruction Librarian</t>
+  </si>
+  <si>
+    <t>Coordinator, Information Literacy Services</t>
+  </si>
+  <si>
+    <t>Generalist (Undergraduate Library)</t>
+  </si>
+  <si>
+    <t>Copyright Librarian</t>
+  </si>
+  <si>
+    <t>Head Business/Sch Pub &amp; Env Affairs Library</t>
+  </si>
+  <si>
+    <t>Anthropology, Folkore, and Sociology</t>
+  </si>
+  <si>
+    <t>*note several of the generalist functional titles work in SS spaces and provide coverage</t>
+  </si>
+  <si>
+    <t>Multicultural Outreach</t>
+  </si>
+  <si>
+    <t>Collection Manager for African-American and African Diaspora Studies</t>
+  </si>
+  <si>
+    <t>Middle Eastern &amp; Islamic &amp; Central Eurasian</t>
+  </si>
+  <si>
+    <t>International &amp; Global</t>
+  </si>
+  <si>
+    <t>Slavic, East European</t>
+  </si>
+  <si>
+    <t>South Asian &amp; Southeast Asian</t>
+  </si>
+  <si>
+    <t>Latin American, Caribbean, Spanish, Portuguese, Chicano &amp; Riqueno, Latino &amp; European Studies</t>
+  </si>
+  <si>
+    <t>East Asian &amp; Tibetan</t>
+  </si>
+  <si>
+    <t>Head, Copyright</t>
+  </si>
+  <si>
+    <t>Head, Digital Collections Services</t>
+  </si>
+  <si>
+    <t>Digital Initiatives Librarian</t>
+  </si>
+  <si>
+    <t>Head of Government Information, Maps &amp; Microform Services</t>
+  </si>
+  <si>
+    <t>Assessment Librarian</t>
+  </si>
+  <si>
+    <t>Research &amp; Instruction Librarian</t>
+  </si>
+  <si>
+    <t>Head, Public Services (Lilly Library)</t>
+  </si>
+  <si>
+    <t>Associate Dean for Research &amp; Learning Services</t>
+  </si>
+  <si>
+    <t>Visual Literacy &amp; Resources Librarian</t>
+  </si>
+  <si>
+    <t>Scholarly Services Librarian &amp; Librarian for Media Studies</t>
+  </si>
+  <si>
+    <t>Scholars Commons Librarian</t>
+  </si>
+  <si>
+    <t>Head, Scholarly Communication</t>
+  </si>
+  <si>
+    <t>Data Services Librarian</t>
+  </si>
+  <si>
+    <t>Scholarly Communication Librarian</t>
+  </si>
+  <si>
+    <t>Head, Scholars Commons</t>
+  </si>
+  <si>
+    <t>Learning Commons Librarian &amp; West Tower Coordinator</t>
+  </si>
+  <si>
+    <t>Information Literacy Librarian</t>
+  </si>
+  <si>
+    <t>Public Services Librarian</t>
+  </si>
+  <si>
+    <t>Head, Teaching &amp; Learning, Undergraduate Education Librarian</t>
+  </si>
+  <si>
+    <t>Map &amp; Spatial Data Librarian</t>
+  </si>
+  <si>
+    <t>Head, Media Services</t>
+  </si>
+  <si>
+    <t>Research Impact &amp; Open Scholarship Librarian</t>
+  </si>
+  <si>
+    <t>Information Literacy &amp; Assessment Librarian</t>
+  </si>
+  <si>
+    <t>Director, Lilly Library</t>
+  </si>
+  <si>
+    <t>Social Science &amp; Public Policy</t>
+  </si>
+  <si>
+    <t>Federal &amp; State Information Librarian</t>
+  </si>
+  <si>
+    <t>Business Reference &amp; Instruction Librarian</t>
+  </si>
+  <si>
+    <t>Education &amp; Psychology Librarian</t>
+  </si>
+  <si>
+    <t>Director, Humanities &amp; Social Sciences</t>
+  </si>
+  <si>
+    <t>Director, Scholarly Impact</t>
+  </si>
+  <si>
+    <t>Outreach &amp; Engagement Librarian</t>
+  </si>
+  <si>
+    <t>Undergraduate Engagement Librarian</t>
+  </si>
+  <si>
+    <t>Digital Humanities Research &amp; Instruction Librarian</t>
+  </si>
+  <si>
+    <t>Director, Digital Scholarship &amp; Publishing Services</t>
+  </si>
+  <si>
+    <t>Education &amp; Outreach Librarian</t>
+  </si>
+  <si>
+    <t>Public Services &amp; Emerging Technology Librarian</t>
+  </si>
+  <si>
+    <t>Outreach &amp; Research Librarian</t>
+  </si>
+  <si>
+    <t>Reference &amp; Instruction Librarian</t>
+  </si>
+  <si>
+    <t>Digital Scholarship &amp; Collections Librarian</t>
+  </si>
+  <si>
+    <t>(Education &amp; ) African Studies</t>
+  </si>
+  <si>
+    <t>Latin American &amp; Latinx, Linguistics, Spanish &amp; Portuguese, English</t>
+  </si>
+  <si>
+    <t>GIS Specialist (not librarian)</t>
+  </si>
+  <si>
+    <t>Head, Terrapin Learning Commons</t>
+  </si>
+  <si>
+    <t>Scholarly Communications Librarian</t>
+  </si>
+  <si>
+    <t>Pedagogy Librarain</t>
+  </si>
+  <si>
+    <t>Head Teaching &amp; Learning Services</t>
+  </si>
+  <si>
+    <t>Education &amp; African American Studies Librarian</t>
+  </si>
+  <si>
+    <t>Art/Sociology Librarian</t>
+  </si>
+  <si>
+    <t>Business &amp; Economics Librarian</t>
+  </si>
+  <si>
+    <t>Journalism &amp; Communication Studies</t>
+  </si>
+  <si>
+    <t>Government, Politics, Public Policy, LGBT &amp; Women's Studies Librarian</t>
+  </si>
+  <si>
+    <t>Government Documents and Criminology Librarian</t>
+  </si>
+  <si>
+    <t>Social Work, Psychology, and Education</t>
+  </si>
+  <si>
+    <t>Anthropology, Psychology, Philosophy, and SLLC Librarian (School of Languages, Literatures, and Cultures)</t>
+  </si>
+  <si>
+    <t>Research Data Manager</t>
+  </si>
+  <si>
+    <t>Asian &amp; Middle East (SE Asia, S Asia, E Asia, &amp; Middle E)</t>
+  </si>
+  <si>
+    <t>see Asian &amp; Middle East</t>
+  </si>
+  <si>
+    <t>African American &amp; African Studies</t>
+  </si>
+  <si>
+    <t>Classics &amp; Near Eastern Studies &amp; Director, Arts &amp; Humanities &amp; Asian Studies</t>
+  </si>
+  <si>
+    <t>American Indian Studies, Asian American Studies, American Studies (&amp; Anthro + Soc)</t>
+  </si>
+  <si>
+    <t>Francophone &amp; Italian Studies</t>
+  </si>
+  <si>
+    <t>European, German, Dutch, Scandanavian, Slavic, and Jewish</t>
+  </si>
+  <si>
+    <t>Chicano &amp; Latin American &amp; Spanish &amp; Portuguese</t>
+  </si>
+  <si>
+    <t>Media Outreach Librarian</t>
+  </si>
+  <si>
+    <t>Director, Digital Arts, Sciences &amp; Humanities Program</t>
+  </si>
+  <si>
+    <t>Copyright Program Librarian</t>
+  </si>
+  <si>
+    <t>Reference Outreach &amp; Instruction</t>
+  </si>
+  <si>
+    <t>Undergraduate Services Librarian</t>
+  </si>
+  <si>
+    <t>Publishing Services Librarian</t>
+  </si>
+  <si>
+    <t>User Experience &amp; Virtual Reference Coordinator (Ag, Bio, Env Sci)</t>
+  </si>
+  <si>
+    <t>Instructional Designer (MLIS holder)</t>
+  </si>
+  <si>
+    <t>Outreach &amp; Instruction Librarian</t>
+  </si>
+  <si>
+    <t>Government Publications &amp; Data Librarian</t>
+  </si>
+  <si>
+    <t>Map &amp; Geospatial Information Librarian</t>
+  </si>
+  <si>
+    <t>Spatial Data Analyst &amp; Curator (not a librarian?)</t>
+  </si>
+  <si>
+    <t>Research Data Management/Curation Lead &amp; Co-Director of University Digital Conservancy</t>
+  </si>
+  <si>
+    <t>Learning &amp; Inclusion Strategist (not a librarian)</t>
+  </si>
+  <si>
+    <t>Information Services Manager &amp; User Experience</t>
+  </si>
+  <si>
+    <t>Business &amp; Global Studies</t>
+  </si>
+  <si>
+    <t>Social Sciences Librarian (Psych &amp; related)</t>
+  </si>
+  <si>
+    <t>Social Sciences Librarian (Anthro, Soc, American Indian, American, Asian American Studies)</t>
+  </si>
+  <si>
+    <t>Social Sciences Librarian (Econ &amp; PoliSci)</t>
+  </si>
+  <si>
+    <t>Social Sciences Librarian (Family Social Sciences, Kinesiology, and Social Work)</t>
+  </si>
+  <si>
+    <t>Liaison to School of Public Affairs &amp; School of Management (Urban Studies, Accounting, Finance, Public Policy)</t>
+  </si>
+  <si>
+    <t>see below (1/2 line Liaison to School of Mgmt)</t>
+  </si>
+  <si>
+    <t>Director, Social Sciences &amp; Professional Programs</t>
+  </si>
+  <si>
+    <t>Journalism &amp; Digital Media Librarian</t>
+  </si>
+  <si>
+    <t>Education, Communication, Gender Women and Sexuality Stuides, Women's Studies</t>
+  </si>
+  <si>
+    <t>Great Plains</t>
+  </si>
+  <si>
+    <t>International Studies</t>
+  </si>
+  <si>
+    <t>Data Services Librarian (&amp; Sciences Liaison)</t>
+  </si>
+  <si>
+    <t>Coordinator for Scholarly Communication</t>
+  </si>
+  <si>
+    <t>Digital Media Librarian (&amp; Humanities subjects)</t>
+  </si>
+  <si>
+    <t>Interim Coordinator of User Experience</t>
+  </si>
+  <si>
+    <t>Communication Engagement</t>
+  </si>
+  <si>
+    <t>Learning Resources Design</t>
+  </si>
+  <si>
+    <t>Teaching &amp; Learning</t>
+  </si>
+  <si>
+    <t>Teaching , Learning &amp; Teaching Education</t>
+  </si>
+  <si>
+    <t>Learning Communities</t>
+  </si>
+  <si>
+    <t>Communication &amp; Outreach</t>
+  </si>
+  <si>
+    <t>Business &amp; Journalism</t>
+  </si>
+  <si>
+    <t>Psychology, Sociology, Education Administration</t>
+  </si>
+  <si>
+    <t>Economics, Political Science, LIS, International Studies, Military &amp; Naval Sciences</t>
+  </si>
+  <si>
+    <t>Anthropology, Criminal Justice, Social Work</t>
+  </si>
+  <si>
+    <t>Psychology, Social Work, Womens' Gender &amp; Sexuality Studies</t>
+  </si>
+  <si>
+    <t>Food &amp; Nutrition, Human Sciences, Sociology</t>
+  </si>
+  <si>
+    <t>Communications, Economics, Political Science</t>
+  </si>
+  <si>
+    <t>Head, Technology &amp; Learning</t>
+  </si>
+  <si>
+    <t>Teaching &amp; Learning Engagement Librarian</t>
+  </si>
+  <si>
+    <t>Information Literacy &amp; Research Engagement Librarian</t>
+  </si>
+  <si>
+    <t>Undergraduate Education Librarian</t>
+  </si>
+  <si>
+    <t>Professional Development Librarian</t>
+  </si>
+  <si>
+    <t>Head, Research Service</t>
+  </si>
+  <si>
+    <t>Research Data Librarian</t>
+  </si>
+  <si>
+    <t>Data Literacy &amp; Visualization Librarian</t>
+  </si>
+  <si>
+    <t>Geospatial Information Librarian</t>
+  </si>
+  <si>
+    <t>Head of Area Studies</t>
+  </si>
+  <si>
+    <t>Latin American</t>
+  </si>
+  <si>
+    <t>Chinese &amp; Korean</t>
+  </si>
+  <si>
+    <t>Eastern European &amp; Slavic</t>
+  </si>
+  <si>
+    <t>Hebraic &amp; Jeriwsh</t>
+  </si>
+  <si>
+    <t>Middle Eastern &amp; Islamic</t>
+  </si>
+  <si>
+    <t>African Studies, Comparative Studies</t>
+  </si>
+  <si>
+    <t>Diversity Resident for Area Studies</t>
+  </si>
+  <si>
+    <t>Business, Head</t>
+  </si>
+  <si>
+    <t>Business &amp; Entrepreneurship Librarian</t>
+  </si>
+  <si>
+    <t>Business Liaison Librarian</t>
+  </si>
+  <si>
+    <t>Information Sciences &amp; Business Liaison Librarian</t>
+  </si>
+  <si>
+    <t>Reference Librarian (Education Library)</t>
+  </si>
+  <si>
+    <t>Instruction &amp; Outreach Archivist</t>
+  </si>
+  <si>
+    <t>Social Sciences Librarian (Gov Info, Law, Poli Sci, Public Policy)</t>
+  </si>
+  <si>
+    <t>Social Sciences Librarian (African American &amp; African Studies, Education)</t>
+  </si>
+  <si>
+    <t>Social Sciences Librarian (Anthro, Communication, Psych, Health &amp; Human Dev)</t>
+  </si>
+  <si>
+    <t>Social Sciences Librarian (Data &amp; Govt Info, Demography, Crim J, Poli Sci, Public Policy, Sociology)</t>
+  </si>
+  <si>
+    <t>Head, Libraries Strategic Technologies &amp; Interim Head, Research Informatics &amp; Publishing</t>
+  </si>
+  <si>
+    <t>Geospatial Services Librarian</t>
+  </si>
+  <si>
+    <t>Data Curation Education Librarian</t>
+  </si>
+  <si>
+    <t>Literacy Informatics Librarian</t>
+  </si>
+  <si>
+    <t>Research Data Librarian - STEM</t>
+  </si>
+  <si>
+    <t>Research Data Librarian - Social Sciences</t>
+  </si>
+  <si>
+    <t>Head of Center for Maps &amp; Geospatial Information</t>
+  </si>
+  <si>
+    <t>Center for Black Digital Research Co-Director</t>
+  </si>
+  <si>
+    <t>Center for Black Digital Research Research Librarian</t>
+  </si>
+  <si>
+    <t>Head, Knowledge Commons</t>
+  </si>
+  <si>
+    <t>Reference Librarian</t>
+  </si>
+  <si>
+    <t>Scholarly Communication &amp; Outreach Librarian</t>
+  </si>
+  <si>
+    <t>Global Engagement Strategic Support Librarian</t>
+  </si>
+  <si>
+    <t>Head, Global Engagement Initiatives &amp; International Partnerships Librarian</t>
+  </si>
+  <si>
+    <t>Engagement &amp; Equity Librarian</t>
+  </si>
+  <si>
+    <t>Interim Head, Library Learning Services</t>
+  </si>
+  <si>
+    <t>Learning Design &amp; Open Education Engagement Librarian</t>
+  </si>
+  <si>
+    <t>Student Engagement Librarian</t>
+  </si>
+  <si>
+    <t>African &amp; African American Studies (covered by Social Sciences Librarian)</t>
+  </si>
+  <si>
+    <t>Asian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -886,24 +1454,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="G46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="6" max="6" width="37.54296875" customWidth="1"/>
-    <col min="7" max="7" width="46.26953125" customWidth="1"/>
-    <col min="13" max="13" width="21.1796875" customWidth="1"/>
-    <col min="14" max="14" width="24.36328125" customWidth="1"/>
-    <col min="15" max="15" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="7" max="7" width="33.375" customWidth="1"/>
+    <col min="13" max="13" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="24.375" customWidth="1"/>
+    <col min="15" max="15" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -947,7 +1516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,16 +1524,40 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>242</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="M3" s="2" t="s">
         <v>68</v>
       </c>
@@ -975,14 +1568,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="M4" s="2" t="s">
         <v>68</v>
       </c>
@@ -993,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="F5" s="2" t="s">
         <v>68</v>
@@ -1001,6 +1609,9 @@
       <c r="G5" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1008,52 +1619,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="F7" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="F8" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="F9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="F10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>109</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="H11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="M11" s="6" t="s">
         <v>71</v>
       </c>
@@ -1061,87 +1708,210 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="O12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>243</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>111</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="H13" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>322</v>
+      </c>
       <c r="O13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="F14" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="H14" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="O14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="F15" s="6" t="s">
         <v>114</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
+      <c r="E16" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="F16" s="6" t="s">
         <v>115</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
+      <c r="E17" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="F17" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="F18" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H18" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="H20" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="M20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1152,16 +1922,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="H21" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="M21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>51</v>
@@ -1170,16 +1964,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>73</v>
+      <c r="H22" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>52</v>
@@ -1188,16 +2003,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>74</v>
+      <c r="H23" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>54</v>
@@ -1206,88 +2039,202 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>121</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="H24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="O24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
+      <c r="B25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="H25" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="H26" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
+      <c r="C27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="H27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="O27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
+      <c r="C28" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="H28" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="O28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
+      <c r="C29" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="L29" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="O29" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="F30" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="L30" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="O30" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="F31" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="B32" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="F32" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="H32" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="M32" s="6" t="s">
         <v>66</v>
       </c>
@@ -1298,14 +2245,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="F33" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="H33" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="N33" s="6" t="s">
         <v>48</v>
       </c>
@@ -1313,14 +2287,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="F34" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>101</v>
       </c>
+      <c r="H34" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="N34" s="6" t="s">
         <v>47</v>
       </c>
@@ -1328,14 +2329,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="F35" s="6" t="s">
         <v>141</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="H35" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="N35" s="6" t="s">
         <v>49</v>
       </c>
@@ -1343,14 +2365,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
+      <c r="B36" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="F36" s="6" t="s">
         <v>129</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="H36" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="N36" s="6" t="s">
         <v>53</v>
       </c>
@@ -1358,254 +2398,474 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F37" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>108</v>
       </c>
+      <c r="H37" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="O37" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F38" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="H38" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>333</v>
+      </c>
       <c r="O38" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
+      <c r="C39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="F39" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H39" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
+      <c r="C40" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="F40" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L40" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
+      <c r="C41" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="F41" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
+      <c r="C42" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="F42" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
+      <c r="C43" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="F43" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="F44" s="6" t="s">
+      <c r="C44" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="C45" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7"/>
-      <c r="F45" s="6" t="s">
+    <row r="46" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="C46" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+    <row r="47" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="B47" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="O46" s="9" t="s">
+      <c r="H47" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="O47" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="G47" s="9" t="s">
+    <row r="48" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="G48" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="F48" s="9" t="s">
+      <c r="K48" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N48" s="9" t="s">
+      <c r="H49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="N49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O48" s="9" t="s">
+      <c r="O49" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="F49" s="9" t="s">
+    <row r="50" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="O49" s="9" t="s">
+      <c r="D50" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O50" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="F50" s="9" t="s">
+    <row r="51" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
+      <c r="D51" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="F51" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="F52" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F52" s="9" t="s">
+    <row r="53" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="O52" s="9" t="s">
+      <c r="H53" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="O53" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G54" s="9" t="s">
+    <row r="54" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="O54" s="9" t="s">
+      <c r="O55" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F55" s="9" t="s">
+    <row r="56" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F56" s="9" t="s">
+      <c r="H56" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="O56" s="9" t="s">
+      <c r="K57" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="O57" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F58" s="9" t="s">
+    <row r="58" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O58" s="9" t="s">
+      <c r="O59" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F60" s="9" t="s">
+    <row r="60" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O60" s="9" t="s">
+      <c r="H61" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="O61" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F61" s="9" t="s">
+    <row r="62" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="N62" s="9" t="s">
+      <c r="C62" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="N63" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F64" s="9" t="s">
+    <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G65" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="6:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F65" s="9" t="s">
+      <c r="H65" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="66" spans="6:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F66" s="9" t="s">
+      <c r="H66" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="I67" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>70</v>
       </c>
     </row>

--- a/BTAA Positions.xlsx
+++ b/BTAA Positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rutgersconnect-my.sharepoint.com/personal/rwomack_libraries_rutgers_edu/Documents/NBL/Exploratory/BTAAreview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_9AE2215215EAAB2E32578452246B36726781E623" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C24A430B-740C-FA40-B8B2-929AB1136F8F}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="11_9AE2215215EAAB2E32578452246B36726781E623" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6BDF33-A4EA-414F-8F6D-3CF7015F5BFF}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="500" windowWidth="26960" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="362">
   <si>
     <t>Social Sciences</t>
   </si>
@@ -678,9 +678,6 @@
     <t>Information Literacy &amp; Assessment Librarian</t>
   </si>
   <si>
-    <t>Director, Lilly Library</t>
-  </si>
-  <si>
     <t>Social Science &amp; Public Policy</t>
   </si>
   <si>
@@ -1069,6 +1066,51 @@
   </si>
   <si>
     <t>Asian</t>
+  </si>
+  <si>
+    <t>Humanities</t>
+  </si>
+  <si>
+    <t>SCUA</t>
+  </si>
+  <si>
+    <t>Sciences</t>
+  </si>
+  <si>
+    <t>Head of Sciences</t>
+  </si>
+  <si>
+    <t>Science Librarian</t>
+  </si>
+  <si>
+    <t>Head, Lilly Library</t>
+  </si>
+  <si>
+    <t>Art, Architecture, and Design Librarian</t>
+  </si>
+  <si>
+    <t>Librarian for English &amp; American Literature, Comparative Literature, and Theatre &amp; Drama</t>
+  </si>
+  <si>
+    <t>History Librarian</t>
+  </si>
+  <si>
+    <t>Librarian for Germanic Studies, French &amp; Italian, History &amp; Philosophy of Science, Classical Studies, and Linguistics</t>
+  </si>
+  <si>
+    <t>Director, Music Library</t>
+  </si>
+  <si>
+    <t>Associate Director and Head of Music Library Technical Services</t>
+  </si>
+  <si>
+    <t>Electronic Music Resources Librarian</t>
+  </si>
+  <si>
+    <t>Head, Education Library</t>
+  </si>
+  <si>
+    <t>Research &amp; Instruction Librarian, Business/SPEA</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1537,8 +1579,8 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>242</v>
+      <c r="E3" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -1547,16 +1589,16 @@
         <v>93</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>68</v>
@@ -1573,11 +1615,14 @@
       <c r="B4" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>68</v>
@@ -1586,10 +1631,10 @@
         <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>68</v>
@@ -1631,7 +1676,7 @@
         <v>68</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>58</v>
@@ -1643,7 +1688,7 @@
         <v>68</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1697,7 @@
         <v>68</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1678,10 +1723,10 @@
         <v>184</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>109</v>
@@ -1690,13 +1735,13 @@
         <v>94</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>116</v>
@@ -1710,14 +1755,17 @@
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>167</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>110</v>
@@ -1726,10 +1774,10 @@
         <v>96</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>100</v>
@@ -1747,10 +1795,10 @@
         <v>169</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>111</v>
@@ -1759,16 +1807,16 @@
         <v>97</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>14</v>
@@ -1779,14 +1827,14 @@
       <c r="B14" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>112</v>
@@ -1795,13 +1843,13 @@
         <v>98</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>15</v>
@@ -1813,7 +1861,7 @@
         <v>171</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>114</v>
@@ -1822,16 +1870,16 @@
         <v>99</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>115</v>
@@ -1840,25 +1888,25 @@
         <v>100</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>116</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1867,10 +1915,10 @@
         <v>117</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1889,10 +1937,10 @@
         <v>199</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>118</v>
@@ -1901,16 +1949,16 @@
         <v>103</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>69</v>
@@ -1928,13 +1976,13 @@
         <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>118</v>
@@ -1943,16 +1991,16 @@
         <v>105</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>74</v>
@@ -1970,10 +2018,10 @@
         <v>178</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>106</v>
@@ -1985,16 +2033,16 @@
         <v>107</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>52</v>
@@ -2009,10 +2057,10 @@
         <v>179</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>120</v>
@@ -2021,16 +2069,16 @@
         <v>106</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>54</v>
@@ -2045,7 +2093,7 @@
         <v>180</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>211</v>
@@ -2057,16 +2105,16 @@
         <v>106</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>21</v>
@@ -2078,22 +2126,22 @@
         <v>181</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>27</v>
@@ -2105,22 +2153,22 @@
         <v>181</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2129,19 +2177,19 @@
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>127</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>23</v>
@@ -2150,7 +2198,7 @@
     <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>210</v>
@@ -2159,10 +2207,10 @@
         <v>128</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>25</v>
@@ -2170,14 +2218,11 @@
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="C29" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>132</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>25</v>
@@ -2189,7 +2234,7 @@
         <v>136</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>26</v>
@@ -2211,11 +2256,11 @@
       <c r="C32" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>223</v>
+      <c r="D32" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>139</v>
@@ -2224,16 +2269,16 @@
         <v>95</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>66</v>
@@ -2251,13 +2296,13 @@
         <v>174</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>123</v>
@@ -2266,10 +2311,10 @@
         <v>46</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>49</v>
@@ -2293,13 +2338,13 @@
         <v>49</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>124</v>
@@ -2308,16 +2353,16 @@
         <v>101</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>73</v>
@@ -2335,10 +2380,10 @@
         <v>176</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>141</v>
@@ -2347,16 +2392,16 @@
         <v>102</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>207</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>49</v>
@@ -2371,10 +2416,10 @@
         <v>138</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>129</v>
@@ -2383,13 +2428,13 @@
         <v>104</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>53</v>
@@ -2404,7 +2449,7 @@
         <v>177</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>102</v>
@@ -2416,10 +2461,10 @@
         <v>108</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O37" s="6" t="s">
         <v>32</v>
@@ -2431,7 +2476,7 @@
         <v>182</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>102</v>
@@ -2440,10 +2485,10 @@
         <v>131</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>33</v>
@@ -2452,7 +2497,7 @@
     <row r="39" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="C39" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>207</v>
@@ -2461,73 +2506,73 @@
         <v>133</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="C40" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>134</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="C41" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="C42" s="6" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>122</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="C43" s="6" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="C44" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="C45" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>142</v>
@@ -2535,9 +2580,6 @@
     </row>
     <row r="46" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="C46" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="F46" s="6" t="s">
         <v>140</v>
       </c>
@@ -2553,7 +2595,7 @@
         <v>192</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>148</v>
@@ -2562,10 +2604,10 @@
         <v>83</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>38</v>
@@ -2577,7 +2619,7 @@
         <v>84</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2592,13 +2634,13 @@
         <v>86</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N49" s="9" t="s">
         <v>37</v>
@@ -2657,10 +2699,10 @@
         <v>88</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O53" s="9" t="s">
         <v>40</v>
@@ -2693,7 +2735,7 @@
         <v>90</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2704,7 +2746,7 @@
         <v>92</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O57" s="9" t="s">
         <v>42</v>
@@ -2743,13 +2785,13 @@
         <v>91</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O61" s="9" t="s">
         <v>44</v>
@@ -2763,16 +2805,16 @@
         <v>187</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>154</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2784,7 +2826,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>162</v>
       </c>
@@ -2798,21 +2840,21 @@
         <v>85</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F66" s="9" t="s">
         <v>150</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>156</v>
       </c>
@@ -2823,49 +2865,136 @@
         <v>143</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>70</v>
       </c>
     </row>

--- a/BTAA Positions.xlsx
+++ b/BTAA Positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rutgersconnect-my.sharepoint.com/personal/rwomack_libraries_rutgers_edu/Documents/NBL/Exploratory/BTAAreview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="11_9AE2215215EAAB2E32578452246B36726781E623" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6BDF33-A4EA-414F-8F6D-3CF7015F5BFF}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="11_9AE2215215EAAB2E32578452246B36726781E623" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EB9F11-06E0-F247-A838-8670920587E7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="363">
   <si>
     <t>Social Sciences</t>
   </si>
@@ -1111,6 +1111,9 @@
   </si>
   <si>
     <t>Research &amp; Instruction Librarian, Business/SPEA</t>
+  </si>
+  <si>
+    <t>Science Data Specialist (w/Chemistry &amp; Physics)</t>
   </si>
 </sst>
 </file>
@@ -1499,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="J32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2080,9 +2083,6 @@
       <c r="L23" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="O23" s="2" t="s">
         <v>24</v>
       </c>
@@ -2466,6 +2466,9 @@
       <c r="L37" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="N37" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="O37" s="6" t="s">
         <v>32</v>
       </c>
@@ -2489,6 +2492,9 @@
       </c>
       <c r="L38" s="6" t="s">
         <v>332</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>33</v>
